--- a/experimental results/e5000_Taxi__compare.xlsx
+++ b/experimental results/e5000_Taxi__compare.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="48">
   <si>
     <t>domain</t>
   </si>
@@ -73,16 +73,19 @@
     <t>SIFU5</t>
   </si>
   <si>
+    <t>[0,0,2,3,4,5] | [1,0,2,3,4,5]</t>
+  </si>
+  <si>
     <t>[1,0,2,3,4,5] | [0,0,2,3,4,5]</t>
   </si>
   <si>
-    <t>[0,0,2,3,4,5] | [1,0,2,3,4,5]</t>
+    <t>[0,4,2,3,1,5]</t>
   </si>
   <si>
-    <t>[0,0,2,3,4,5] | [0,3,2,1,4,5] | [1,0,2,3,4,5] | [0,2,1,3,4,5] | [0,4,2,3,1,5] | [0,2,2,3,4,5] | [0,5,2,3,4,1]</t>
+    <t>[0,2,1,3,4,5] | [0,4,2,3,1,5] | [0,3,2,1,4,5] | [1,0,2,3,4,5] | [0,5,2,3,4,1] | [0,2,2,3,4,5] | [0,0,2,3,4,5]</t>
   </si>
   <si>
-    <t>[0,0,2,3,4,5] | [0,3,2,1,4,5] | [1,0,2,3,4,5] | [0,4,2,3,1,5]</t>
+    <t>[0,4,2,3,1,5] | [0,3,2,1,4,5] | [1,0,2,3,4,5] | [0,0,2,3,4,5]</t>
   </si>
   <si>
     <t>[0,2,2,3,4,5]</t>
@@ -100,9 +103,6 @@
     <t>[0,1,2,3,0,5]</t>
   </si>
   <si>
-    <t>[0,4,2,3,1,5]</t>
-  </si>
-  <si>
     <t>[0,1,2,3,4,0]</t>
   </si>
   <si>
@@ -112,25 +112,34 @@
     <t>[0,3,2,1,4,5]</t>
   </si>
   <si>
-    <t>[1,0,2,3,4,5] | [0,2,2,3,4,5] | [0,0,2,3,4,5] | [0,3,2,1,4,5] | [0,2,1,3,4,5] | [0,5,2,3,4,1] | [0,4,2,3,1,5]</t>
+    <t>[0,2,1,3,4,5] | [0,3,2,1,4,5] | [0,2,2,3,4,5] | [0,5,2,3,4,1] | [0,0,2,3,4,5] | [1,0,2,3,4,5] | [0,4,2,3,1,5]</t>
   </si>
   <si>
-    <t>[1,0,2,3,4,5] | [0,0,2,3,4,5] | [0,3,2,1,4,5] | [0,4,2,3,1,5]</t>
+    <t>[0,3,2,1,4,5] | [0,0,2,3,4,5] | [1,0,2,3,4,5] | [0,4,2,3,1,5]</t>
+  </si>
+  <si>
+    <t>[0,4,2,3,1,5] | [0,5,2,3,4,1]</t>
+  </si>
+  <si>
+    <t>[0,5,2,3,4,1] | [0,4,2,3,1,5]</t>
+  </si>
+  <si>
+    <t>[0,4,2,3,1,5] | [0,5,2,3,4,1] | [0,3,2,1,4,5]</t>
   </si>
   <si>
     <t>[0,5,2,3,4,1]</t>
   </si>
   <si>
-    <t>[0,4,2,3,1,5] | [1,0,2,3,4,5]</t>
+    <t>[1,0,2,3,4,5] | [0,4,2,3,1,5]</t>
   </si>
   <si>
     <t>[1,0,2,3,4,5]</t>
   </si>
   <si>
-    <t>[0,0,2,3,4,5] | [0,2,2,3,4,5] | [0,5,2,3,4,1] | [0,2,1,3,4,5] | [0,4,2,3,1,5] | [1,0,2,3,4,5] | [0,3,2,1,4,5]</t>
+    <t>[1,0,2,3,4,5] | [0,2,2,3,4,5] | [0,2,1,3,4,5] | [0,3,2,1,4,5] | [0,5,2,3,4,1] | [0,0,2,3,4,5] | [0,4,2,3,1,5]</t>
   </si>
   <si>
-    <t>[0,0,2,3,4,5] | [0,4,2,3,1,5] | [1,0,2,3,4,5] | [0,3,2,1,4,5]</t>
+    <t>[1,0,2,3,4,5] | [0,3,2,1,4,5] | [0,0,2,3,4,5] | [0,4,2,3,1,5]</t>
   </si>
   <si>
     <t>candidate</t>
@@ -222,8 +231,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:N113" totalsRowShown="0">
-  <autoFilter ref="A1:N113"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:N120" totalsRowShown="0">
+  <autoFilter ref="A1:N120"/>
   <tableColumns count="14">
     <tableColumn id="1" name="domain"/>
     <tableColumn id="2" name="seed"/>
@@ -614,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>30.46131134033203</v>
+        <v>44.9974536895752</v>
       </c>
       <c r="N2">
-        <v>30.46131134033203</v>
+        <v>44.9974536895752</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -655,13 +664,13 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>4.271030426025391</v>
+        <v>3.973484039306641</v>
       </c>
       <c r="M3">
         <v>3.000259399414062</v>
       </c>
       <c r="N3">
-        <v>7.271289825439453</v>
+        <v>6.973743438720703</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -699,10 +708,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>38.31362724304199</v>
+        <v>28.01990509033203</v>
       </c>
       <c r="N4">
-        <v>38.31362724304199</v>
+        <v>28.01990509033203</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -728,7 +737,7 @@
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -740,13 +749,13 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>5.998849868774414</v>
+        <v>16.97516441345215</v>
       </c>
       <c r="M5">
-        <v>3.513574600219727</v>
+        <v>17.28034019470215</v>
       </c>
       <c r="N5">
-        <v>9.512424468994141</v>
+        <v>34.2555046081543</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -784,10 +793,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.99995994567871</v>
+        <v>31.97145462036133</v>
       </c>
       <c r="N6">
-        <v>16.99995994567871</v>
+        <v>31.97145462036133</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -825,13 +834,13 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <v>13.98634910583496</v>
+        <v>16.01409912109375</v>
       </c>
       <c r="M7">
-        <v>12.99834251403809</v>
+        <v>14.40930366516113</v>
       </c>
       <c r="N7">
-        <v>26.98469161987305</v>
+        <v>30.42340278625488</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -856,11 +865,14 @@
       <c r="G8" t="s">
         <v>16</v>
       </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -869,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.61841773986816</v>
+        <v>21.18301391601562</v>
       </c>
       <c r="N8">
-        <v>17.61841773986816</v>
+        <v>21.18301391601562</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -898,7 +910,7 @@
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -907,16 +919,16 @@
         <v>2</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>17.52924919128418</v>
+        <v>22.98069000244141</v>
       </c>
       <c r="M9">
-        <v>25.09832382202148</v>
+        <v>29.97779846191406</v>
       </c>
       <c r="N9">
-        <v>42.62757301330566</v>
+        <v>52.95848846435547</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -942,7 +954,7 @@
         <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -957,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>183.8200092315674</v>
+        <v>218.7802791595459</v>
       </c>
       <c r="N10">
-        <v>183.8200092315674</v>
+        <v>218.7802791595459</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -986,7 +998,7 @@
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -998,13 +1010,13 @@
         <v>4</v>
       </c>
       <c r="L11">
-        <v>22.37367630004883</v>
+        <v>19.54746246337891</v>
       </c>
       <c r="M11">
-        <v>72.49331474304199</v>
+        <v>70.39761543273926</v>
       </c>
       <c r="N11">
-        <v>94.86699104309082</v>
+        <v>89.94507789611816</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1027,7 +1039,7 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -1042,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>30.55381774902344</v>
+        <v>37.82868385314941</v>
       </c>
       <c r="N12">
-        <v>30.55381774902344</v>
+        <v>37.82868385314941</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1068,10 +1080,10 @@
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -1083,13 +1095,13 @@
         <v>2</v>
       </c>
       <c r="L13">
-        <v>3.994941711425781</v>
+        <v>5.947351455688477</v>
       </c>
       <c r="M13">
-        <v>2.000570297241211</v>
+        <v>2.478599548339844</v>
       </c>
       <c r="N13">
-        <v>5.995512008666992</v>
+        <v>8.42595100402832</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1112,7 +1124,7 @@
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -1127,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13.07868957519531</v>
+        <v>13.05222511291504</v>
       </c>
       <c r="N14">
-        <v>13.07868957519531</v>
+        <v>13.05222511291504</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1153,10 +1165,10 @@
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -1168,13 +1180,13 @@
         <v>2</v>
       </c>
       <c r="L15">
-        <v>4.002571105957031</v>
+        <v>6.303548812866211</v>
       </c>
       <c r="M15">
-        <v>2.99835205078125</v>
+        <v>2.999067306518555</v>
       </c>
       <c r="N15">
-        <v>7.000923156738281</v>
+        <v>9.302616119384766</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1197,7 +1209,7 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -1212,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>31.50081634521484</v>
+        <v>11.57784461975098</v>
       </c>
       <c r="N16">
-        <v>31.50081634521484</v>
+        <v>11.57784461975098</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1238,10 +1250,10 @@
         <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1253,13 +1265,13 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <v>5.996942520141602</v>
+        <v>7.189512252807617</v>
       </c>
       <c r="M17">
-        <v>4.001379013061523</v>
+        <v>6.378173828125</v>
       </c>
       <c r="N17">
-        <v>9.998321533203125</v>
+        <v>13.56768608093262</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1282,7 +1294,7 @@
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -1297,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>12.18056678771973</v>
+        <v>12.73727416992188</v>
       </c>
       <c r="N18">
-        <v>12.18056678771973</v>
+        <v>12.73727416992188</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1323,10 +1335,10 @@
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1338,13 +1350,13 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <v>16.00909233093262</v>
+        <v>24.84393119812012</v>
       </c>
       <c r="M19">
-        <v>14.48845863342285</v>
+        <v>21.47817611694336</v>
       </c>
       <c r="N19">
-        <v>30.49755096435547</v>
+        <v>46.32210731506348</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1367,7 +1379,7 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -1382,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>12.00032234191895</v>
+        <v>10.51545143127441</v>
       </c>
       <c r="N20">
-        <v>12.00032234191895</v>
+        <v>10.51545143127441</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1408,7 +1420,7 @@
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H21" t="s">
         <v>24</v>
@@ -1423,13 +1435,13 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <v>20.03908157348633</v>
+        <v>19.51909065246582</v>
       </c>
       <c r="M21">
-        <v>18.92614364624023</v>
+        <v>19.98162269592285</v>
       </c>
       <c r="N21">
-        <v>38.96522521972656</v>
+        <v>39.50071334838867</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1452,7 +1464,7 @@
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -1467,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.303859710693359</v>
+        <v>5.42902946472168</v>
       </c>
       <c r="N22">
-        <v>5.303859710693359</v>
+        <v>5.42902946472168</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1493,10 +1505,10 @@
         <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
@@ -1508,13 +1520,13 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>3.95512580871582</v>
+        <v>4.985809326171875</v>
       </c>
       <c r="M23">
-        <v>1.000881195068359</v>
+        <v>0.9961128234863281</v>
       </c>
       <c r="N23">
-        <v>4.95600700378418</v>
+        <v>5.981922149658203</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1537,7 +1549,7 @@
         <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -1552,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>5.026578903198242</v>
+        <v>5.426406860351562</v>
       </c>
       <c r="N24">
-        <v>5.026578903198242</v>
+        <v>5.426406860351562</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1578,10 +1590,10 @@
         <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -1593,13 +1605,13 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>5.924701690673828</v>
+        <v>3.980398178100586</v>
       </c>
       <c r="M25">
-        <v>1.04069709777832</v>
+        <v>1.000165939331055</v>
       </c>
       <c r="N25">
-        <v>6.965398788452148</v>
+        <v>4.980564117431641</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1622,7 +1634,7 @@
         <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -1637,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>5.89299201965332</v>
+        <v>8.506536483764648</v>
       </c>
       <c r="N26">
-        <v>5.89299201965332</v>
+        <v>8.506536483764648</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1663,10 +1675,10 @@
         <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
@@ -1678,13 +1690,13 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>6.956100463867188</v>
+        <v>4.977703094482422</v>
       </c>
       <c r="M27">
-        <v>1.069784164428711</v>
+        <v>2.018213272094727</v>
       </c>
       <c r="N27">
-        <v>8.025884628295898</v>
+        <v>6.995916366577148</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1707,7 +1719,7 @@
         <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -1722,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>5.014657974243164</v>
+        <v>6.888151168823242</v>
       </c>
       <c r="N28">
-        <v>5.014657974243164</v>
+        <v>6.888151168823242</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1748,10 +1760,10 @@
         <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
@@ -1763,13 +1775,13 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>14.53685760498047</v>
+        <v>17.51446723937988</v>
       </c>
       <c r="M29">
-        <v>2.002477645874023</v>
+        <v>1.001596450805664</v>
       </c>
       <c r="N29">
-        <v>16.53933525085449</v>
+        <v>18.51606369018555</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1792,7 +1804,7 @@
         <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -1807,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>5.978107452392578</v>
+        <v>6.178140640258789</v>
       </c>
       <c r="N30">
-        <v>5.978107452392578</v>
+        <v>6.178140640258789</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1833,10 +1845,10 @@
         <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -1848,13 +1860,13 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>18.01657676696777</v>
+        <v>18.98574829101562</v>
       </c>
       <c r="M31">
-        <v>0.9996891021728516</v>
+        <v>1.003503799438477</v>
       </c>
       <c r="N31">
-        <v>19.01626586914062</v>
+        <v>19.9892520904541</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1877,10 +1889,10 @@
         <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -1895,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>21.99554443359375</v>
+        <v>22.01581001281738</v>
       </c>
       <c r="N32">
-        <v>21.99554443359375</v>
+        <v>22.01581001281738</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1921,10 +1933,10 @@
         <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I33" t="b">
         <v>1</v>
@@ -1936,13 +1948,13 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <v>3.983259201049805</v>
+        <v>3.993749618530273</v>
       </c>
       <c r="M33">
-        <v>0.9992122650146484</v>
+        <v>1.001119613647461</v>
       </c>
       <c r="N33">
-        <v>4.982471466064453</v>
+        <v>4.994869232177734</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1965,10 +1977,10 @@
         <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -1983,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>24.96886253356934</v>
+        <v>29.42562103271484</v>
       </c>
       <c r="N34">
-        <v>24.96886253356934</v>
+        <v>29.42562103271484</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2009,10 +2021,10 @@
         <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
@@ -2024,13 +2036,13 @@
         <v>1</v>
       </c>
       <c r="L35">
-        <v>5.003690719604492</v>
+        <v>4.923820495605469</v>
       </c>
       <c r="M35">
-        <v>0.9961128234863281</v>
+        <v>1.00255012512207</v>
       </c>
       <c r="N35">
-        <v>5.99980354309082</v>
+        <v>5.926370620727539</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2053,10 +2065,10 @@
         <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -2071,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>19.84024047851562</v>
+        <v>21.98266983032227</v>
       </c>
       <c r="N36">
-        <v>19.84024047851562</v>
+        <v>21.98266983032227</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2097,10 +2109,10 @@
         <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -2112,13 +2124,13 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>3.980875015258789</v>
+        <v>3.964662551879883</v>
       </c>
       <c r="M37">
-        <v>1.000404357910156</v>
+        <v>1.006126403808594</v>
       </c>
       <c r="N37">
-        <v>4.981279373168945</v>
+        <v>4.970788955688477</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2141,10 +2153,10 @@
         <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H38" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -2159,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>25.63714981079102</v>
+        <v>31.6925048828125</v>
       </c>
       <c r="N38">
-        <v>25.63714981079102</v>
+        <v>31.6925048828125</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2185,10 +2197,10 @@
         <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I39" t="b">
         <v>1</v>
@@ -2200,13 +2212,13 @@
         <v>1</v>
       </c>
       <c r="L39">
-        <v>4.981517791748047</v>
+        <v>5.988121032714844</v>
       </c>
       <c r="M39">
-        <v>2.001047134399414</v>
+        <v>0.9999275207519531</v>
       </c>
       <c r="N39">
-        <v>6.982564926147461</v>
+        <v>6.988048553466797</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2229,10 +2241,10 @@
         <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H40" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -2247,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>36.97919845581055</v>
+        <v>39.97683525085449</v>
       </c>
       <c r="N40">
-        <v>36.97919845581055</v>
+        <v>39.97683525085449</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2273,10 +2285,10 @@
         <v>17</v>
       </c>
       <c r="G41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I41" t="b">
         <v>1</v>
@@ -2288,13 +2300,13 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>17.28320121765137</v>
+        <v>19.19102668762207</v>
       </c>
       <c r="M41">
-        <v>1.001596450805664</v>
+        <v>0.9787082672119141</v>
       </c>
       <c r="N41">
-        <v>18.28479766845703</v>
+        <v>20.16973495483398</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2332,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>46.62895202636719</v>
+        <v>50.7056713104248</v>
       </c>
       <c r="N42">
-        <v>46.62895202636719</v>
+        <v>50.7056713104248</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2373,13 +2385,13 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>3.981828689575195</v>
+        <v>5.012273788452148</v>
       </c>
       <c r="M43">
-        <v>1.019954681396484</v>
+        <v>1.005172729492188</v>
       </c>
       <c r="N43">
-        <v>5.00178337097168</v>
+        <v>6.017446517944336</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2417,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>46.00667953491211</v>
+        <v>54.97312545776367</v>
       </c>
       <c r="N44">
-        <v>46.00667953491211</v>
+        <v>54.97312545776367</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2458,13 +2470,13 @@
         <v>1</v>
       </c>
       <c r="L45">
-        <v>4.982233047485352</v>
+        <v>6.593942642211914</v>
       </c>
       <c r="M45">
-        <v>0.9996891021728516</v>
+        <v>0.9999275207519531</v>
       </c>
       <c r="N45">
-        <v>5.981922149658203</v>
+        <v>7.593870162963867</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2502,10 +2514,10 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>40.99774360656738</v>
+        <v>53.79915237426758</v>
       </c>
       <c r="N46">
-        <v>40.99774360656738</v>
+        <v>53.79915237426758</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2543,13 +2555,13 @@
         <v>1</v>
       </c>
       <c r="L47">
-        <v>4.980564117431641</v>
+        <v>5.023956298828125</v>
       </c>
       <c r="M47">
-        <v>1.001358032226562</v>
+        <v>0.9744167327880859</v>
       </c>
       <c r="N47">
-        <v>5.981922149658203</v>
+        <v>5.998373031616211</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2587,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>42.54031181335449</v>
+        <v>44.45743560791016</v>
       </c>
       <c r="N48">
-        <v>42.54031181335449</v>
+        <v>44.45743560791016</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2628,13 +2640,13 @@
         <v>1</v>
       </c>
       <c r="L49">
-        <v>6.983518600463867</v>
+        <v>4.987478256225586</v>
       </c>
       <c r="M49">
-        <v>1.000165939331055</v>
+        <v>0.9946823120117188</v>
       </c>
       <c r="N49">
-        <v>7.983684539794922</v>
+        <v>5.982160568237305</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2672,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>42.83452033996582</v>
+        <v>43.06316375732422</v>
       </c>
       <c r="N50">
-        <v>42.83452033996582</v>
+        <v>43.06316375732422</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2713,13 +2725,13 @@
         <v>1</v>
       </c>
       <c r="L51">
-        <v>16.38412475585938</v>
+        <v>21.01707458496094</v>
       </c>
       <c r="M51">
-        <v>0.9670257568359375</v>
+        <v>0.9610652923583984</v>
       </c>
       <c r="N51">
-        <v>17.35115051269531</v>
+        <v>21.97813987731934</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2757,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>28.99837493896484</v>
+        <v>43.49088668823242</v>
       </c>
       <c r="N52">
-        <v>28.99837493896484</v>
+        <v>43.49088668823242</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2786,7 +2798,7 @@
         <v>29</v>
       </c>
       <c r="H53" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
@@ -2798,13 +2810,13 @@
         <v>2</v>
       </c>
       <c r="L53">
-        <v>5.000114440917969</v>
+        <v>3.978967666625977</v>
       </c>
       <c r="M53">
-        <v>2.001285552978516</v>
+        <v>2.002239227294922</v>
       </c>
       <c r="N53">
-        <v>7.001399993896484</v>
+        <v>5.981206893920898</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2842,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>40.99702835083008</v>
+        <v>13.9918327331543</v>
       </c>
       <c r="N54">
-        <v>40.99702835083008</v>
+        <v>13.9918327331543</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2871,7 +2883,7 @@
         <v>29</v>
       </c>
       <c r="H55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I55" t="b">
         <v>1</v>
@@ -2883,13 +2895,13 @@
         <v>2</v>
       </c>
       <c r="L55">
-        <v>3.981113433837891</v>
+        <v>8.152961730957031</v>
       </c>
       <c r="M55">
-        <v>2.999782562255859</v>
+        <v>4.975318908691406</v>
       </c>
       <c r="N55">
-        <v>6.98089599609375</v>
+        <v>13.12828063964844</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2927,10 +2939,10 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>10.23387908935547</v>
+        <v>14.9986743927002</v>
       </c>
       <c r="N56">
-        <v>10.23387908935547</v>
+        <v>14.9986743927002</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2956,7 +2968,7 @@
         <v>29</v>
       </c>
       <c r="H57" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I57" t="b">
         <v>1</v>
@@ -2968,13 +2980,13 @@
         <v>2</v>
       </c>
       <c r="L57">
-        <v>8.014440536499023</v>
+        <v>6.008386611938477</v>
       </c>
       <c r="M57">
-        <v>6.000518798828125</v>
+        <v>2.925634384155273</v>
       </c>
       <c r="N57">
-        <v>14.01495933532715</v>
+        <v>8.93402099609375</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3012,10 +3024,10 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>10.66088676452637</v>
+        <v>13.96727561950684</v>
       </c>
       <c r="N58">
-        <v>10.66088676452637</v>
+        <v>13.96727561950684</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3053,13 +3065,13 @@
         <v>2</v>
       </c>
       <c r="L59">
-        <v>8.967876434326172</v>
+        <v>10.98871231079102</v>
       </c>
       <c r="M59">
-        <v>7.069826126098633</v>
+        <v>10.00428199768066</v>
       </c>
       <c r="N59">
-        <v>16.0377025604248</v>
+        <v>20.99299430847168</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3097,10 +3109,10 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>11.65413856506348</v>
+        <v>11.43813133239746</v>
       </c>
       <c r="N60">
-        <v>11.65413856506348</v>
+        <v>11.43813133239746</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3126,7 +3138,7 @@
         <v>29</v>
       </c>
       <c r="H61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I61" t="b">
         <v>1</v>
@@ -3138,13 +3150,13 @@
         <v>2</v>
       </c>
       <c r="L61">
-        <v>17.18926429748535</v>
+        <v>18.44286918640137</v>
       </c>
       <c r="M61">
-        <v>18.24283599853516</v>
+        <v>19.97995376586914</v>
       </c>
       <c r="N61">
-        <v>35.43210029602051</v>
+        <v>38.42282295227051</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3182,10 +3194,10 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>29.39653396606445</v>
+        <v>26.0004997253418</v>
       </c>
       <c r="N62">
-        <v>29.39653396606445</v>
+        <v>26.0004997253418</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3220,16 +3232,16 @@
         <v>1</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>4.003286361694336</v>
+        <v>5.984306335449219</v>
       </c>
       <c r="M63">
-        <v>3.043174743652344</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>7.04646110534668</v>
+        <v>5.984306335449219</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3254,14 +3266,11 @@
       <c r="G64" t="s">
         <v>30</v>
       </c>
-      <c r="H64" t="s">
-        <v>27</v>
-      </c>
       <c r="I64" t="b">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64">
         <v>10</v>
@@ -3270,10 +3279,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>18.55206489562988</v>
+        <v>20.22337913513184</v>
       </c>
       <c r="N64">
-        <v>18.55206489562988</v>
+        <v>20.22337913513184</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3311,13 +3320,13 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>6.001472473144531</v>
+        <v>5.973339080810547</v>
       </c>
       <c r="M65">
         <v>0</v>
       </c>
       <c r="N65">
-        <v>6.001472473144531</v>
+        <v>5.973339080810547</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3355,10 +3364,10 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>18.20850372314453</v>
+        <v>49.8802661895752</v>
       </c>
       <c r="N66">
-        <v>18.20850372314453</v>
+        <v>49.8802661895752</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3396,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>6.244897842407227</v>
+        <v>11.97409629821777</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
       <c r="N67">
-        <v>6.244897842407227</v>
+        <v>11.97409629821777</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3427,14 +3436,11 @@
       <c r="G68" t="s">
         <v>30</v>
       </c>
-      <c r="H68" t="s">
-        <v>27</v>
-      </c>
       <c r="I68" t="b">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68">
         <v>10</v>
@@ -3443,10 +3449,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>121.2406158447266</v>
+        <v>36.65733337402344</v>
       </c>
       <c r="N68">
-        <v>121.2406158447266</v>
+        <v>36.65733337402344</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3484,13 +3490,13 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>18.54157447814941</v>
+        <v>10.00452041625977</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69">
-        <v>18.54157447814941</v>
+        <v>10.00452041625977</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3531,10 +3537,10 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>174.6859550476074</v>
+        <v>200.86669921875</v>
       </c>
       <c r="N70">
-        <v>174.6859550476074</v>
+        <v>200.86669921875</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3572,13 +3578,13 @@
         <v>4</v>
       </c>
       <c r="L71">
-        <v>21.19922637939453</v>
+        <v>21.76308631896973</v>
       </c>
       <c r="M71">
-        <v>67.91400909423828</v>
+        <v>70.71566581726074</v>
       </c>
       <c r="N71">
-        <v>89.11323547363281</v>
+        <v>92.47875213623047</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3601,13 +3607,16 @@
         <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="H72" t="s">
+        <v>20</v>
       </c>
       <c r="I72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72">
         <v>10</v>
@@ -3616,10 +3625,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>4.980802536010742</v>
+        <v>32.91153907775879</v>
       </c>
       <c r="N72">
-        <v>4.980802536010742</v>
+        <v>32.91153907775879</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3642,28 +3651,28 @@
         <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H73" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>4.982709884643555</v>
+        <v>3.983259201049805</v>
       </c>
       <c r="M73">
-        <v>0.9989738464355469</v>
+        <v>4.000425338745117</v>
       </c>
       <c r="N73">
-        <v>5.981683731079102</v>
+        <v>7.983684539794922</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3686,13 +3695,16 @@
         <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="H74" t="s">
+        <v>20</v>
       </c>
       <c r="I74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74">
         <v>10</v>
@@ -3701,10 +3713,10 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>5.983352661132812</v>
+        <v>39.00027275085449</v>
       </c>
       <c r="N74">
-        <v>5.983352661132812</v>
+        <v>39.00027275085449</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3727,28 +3739,28 @@
         <v>17</v>
       </c>
       <c r="G75" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H75" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I75" t="b">
         <v>1</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L75">
-        <v>5.97691535949707</v>
+        <v>3.986120223999023</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>4.005670547485352</v>
       </c>
       <c r="N75">
-        <v>5.97691535949707</v>
+        <v>7.991790771484375</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3771,13 +3783,16 @@
         <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="H76" t="s">
+        <v>20</v>
       </c>
       <c r="I76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76">
         <v>10</v>
@@ -3786,10 +3801,10 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>6.546497344970703</v>
+        <v>51.08380317687988</v>
       </c>
       <c r="N76">
-        <v>6.546497344970703</v>
+        <v>51.08380317687988</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3812,28 +3827,28 @@
         <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H77" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I77" t="b">
         <v>1</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L77">
-        <v>6.865262985229492</v>
+        <v>6.273984909057617</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>6.99615478515625</v>
       </c>
       <c r="N77">
-        <v>6.865262985229492</v>
+        <v>13.27013969421387</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3856,7 +3871,7 @@
         <v>15</v>
       </c>
       <c r="G78" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I78" t="b">
         <v>0</v>
@@ -3871,10 +3886,10 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>5.438089370727539</v>
+        <v>6.047487258911133</v>
       </c>
       <c r="N78">
-        <v>5.438089370727539</v>
+        <v>6.047487258911133</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3897,10 +3912,10 @@
         <v>17</v>
       </c>
       <c r="G79" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H79" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I79" t="b">
         <v>1</v>
@@ -3912,13 +3927,13 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>17.98796653747559</v>
+        <v>9.676694869995117</v>
       </c>
       <c r="M79">
         <v>0</v>
       </c>
       <c r="N79">
-        <v>17.98796653747559</v>
+        <v>9.676694869995117</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3941,7 +3956,7 @@
         <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I80" t="b">
         <v>0</v>
@@ -3956,10 +3971,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>5.995273590087891</v>
+        <v>6.325244903564453</v>
       </c>
       <c r="N80">
-        <v>5.995273590087891</v>
+        <v>6.325244903564453</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -3982,10 +3997,10 @@
         <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H81" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
@@ -3997,13 +4012,13 @@
         <v>1</v>
       </c>
       <c r="L81">
-        <v>17.974853515625</v>
+        <v>23.7889289855957</v>
       </c>
       <c r="M81">
-        <v>2.000093460083008</v>
+        <v>0.980377197265625</v>
       </c>
       <c r="N81">
-        <v>19.97494697570801</v>
+        <v>24.76930618286133</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4026,16 +4041,16 @@
         <v>15</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H82" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K82">
         <v>10</v>
@@ -4044,10 +4059,10 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>28.1529426574707</v>
+        <v>37.00590133666992</v>
       </c>
       <c r="N82">
-        <v>28.1529426574707</v>
+        <v>37.00590133666992</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4070,10 +4085,10 @@
         <v>17</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H83" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I83" t="b">
         <v>1</v>
@@ -4085,13 +4100,13 @@
         <v>1</v>
       </c>
       <c r="L83">
-        <v>5.000829696655273</v>
+        <v>6.989002227783203</v>
       </c>
       <c r="M83">
-        <v>3.014564514160156</v>
+        <v>2.885341644287109</v>
       </c>
       <c r="N83">
-        <v>8.01539421081543</v>
+        <v>9.874343872070312</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4114,13 +4129,16 @@
         <v>15</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="H84" t="s">
+        <v>20</v>
       </c>
       <c r="I84" t="b">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84">
         <v>10</v>
@@ -4129,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>42.13857650756836</v>
+        <v>38.56945037841797</v>
       </c>
       <c r="N84">
-        <v>42.13857650756836</v>
+        <v>38.56945037841797</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4155,28 +4173,28 @@
         <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I85" t="b">
         <v>1</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L85">
-        <v>4.977703094482422</v>
+        <v>5.005598068237305</v>
       </c>
       <c r="M85">
-        <v>1.000642776489258</v>
+        <v>4.000663757324219</v>
       </c>
       <c r="N85">
-        <v>5.97834587097168</v>
+        <v>9.006261825561523</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4199,10 +4217,10 @@
         <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H86" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I86" t="b">
         <v>0</v>
@@ -4217,10 +4235,10 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>39.63756561279297</v>
+        <v>42.00959205627441</v>
       </c>
       <c r="N86">
-        <v>39.63756561279297</v>
+        <v>42.00959205627441</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4243,10 +4261,10 @@
         <v>17</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H87" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I87" t="b">
         <v>1</v>
@@ -4258,13 +4276,13 @@
         <v>0</v>
       </c>
       <c r="L87">
-        <v>4.96363639831543</v>
+        <v>7.951498031616211</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
       <c r="N87">
-        <v>4.96363639831543</v>
+        <v>7.951498031616211</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4287,10 +4305,10 @@
         <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H88" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I88" t="b">
         <v>0</v>
@@ -4305,10 +4323,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>44.41571235656738</v>
+        <v>67.43526458740234</v>
       </c>
       <c r="N88">
-        <v>44.41571235656738</v>
+        <v>67.43526458740234</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4331,10 +4349,10 @@
         <v>17</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H89" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I89" t="b">
         <v>1</v>
@@ -4346,13 +4364,13 @@
         <v>0</v>
       </c>
       <c r="L89">
-        <v>11.00587844848633</v>
+        <v>19.52838897705078</v>
       </c>
       <c r="M89">
         <v>0</v>
       </c>
       <c r="N89">
-        <v>11.00587844848633</v>
+        <v>19.52838897705078</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4375,10 +4393,10 @@
         <v>15</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H90" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I90" t="b">
         <v>0</v>
@@ -4393,10 +4411,10 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>78.57155799865723</v>
+        <v>91.9959545135498</v>
       </c>
       <c r="N90">
-        <v>78.57155799865723</v>
+        <v>91.9959545135498</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4419,10 +4437,10 @@
         <v>17</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H91" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I91" t="b">
         <v>1</v>
@@ -4434,13 +4452,13 @@
         <v>1</v>
       </c>
       <c r="L91">
-        <v>20.08175849914551</v>
+        <v>24.01113510131836</v>
       </c>
       <c r="M91">
-        <v>3.454446792602539</v>
+        <v>2.954483032226562</v>
       </c>
       <c r="N91">
-        <v>23.53620529174805</v>
+        <v>26.96561813354492</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4463,7 +4481,7 @@
         <v>15</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I92" t="b">
         <v>0</v>
@@ -4478,10 +4496,10 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>20.23863792419434</v>
+        <v>32.12070465087891</v>
       </c>
       <c r="N92">
-        <v>20.23863792419434</v>
+        <v>32.12070465087891</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4504,7 +4522,7 @@
         <v>17</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H93" t="s">
         <v>18</v>
@@ -4516,16 +4534,16 @@
         <v>2</v>
       </c>
       <c r="K93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L93">
-        <v>7.002115249633789</v>
+        <v>5.072116851806641</v>
       </c>
       <c r="M93">
-        <v>7.919788360595703</v>
+        <v>2.007007598876953</v>
       </c>
       <c r="N93">
-        <v>14.92190361022949</v>
+        <v>7.079124450683594</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4548,16 +4566,13 @@
         <v>15</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
-      </c>
-      <c r="H94" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I94" t="b">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94">
         <v>10</v>
@@ -4566,10 +4581,10 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>25.80022811889648</v>
+        <v>34.97886657714844</v>
       </c>
       <c r="N94">
-        <v>25.80022811889648</v>
+        <v>34.97886657714844</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4592,10 +4607,10 @@
         <v>17</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H95" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I95" t="b">
         <v>1</v>
@@ -4604,16 +4619,16 @@
         <v>2</v>
       </c>
       <c r="K95">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L95">
-        <v>5.978107452392578</v>
+        <v>6.987571716308594</v>
       </c>
       <c r="M95">
-        <v>3.999471664428711</v>
+        <v>5.998373031616211</v>
       </c>
       <c r="N95">
-        <v>9.977579116821289</v>
+        <v>12.9859447479248</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4636,16 +4651,13 @@
         <v>15</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
-      </c>
-      <c r="H96" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I96" t="b">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96">
         <v>10</v>
@@ -4654,10 +4666,10 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>32.04774856567383</v>
+        <v>17.01188087463379</v>
       </c>
       <c r="N96">
-        <v>32.04774856567383</v>
+        <v>17.01188087463379</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4680,7 +4692,7 @@
         <v>17</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H97" t="s">
         <v>18</v>
@@ -4692,16 +4704,16 @@
         <v>2</v>
       </c>
       <c r="K97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L97">
-        <v>7.407426834106445</v>
+        <v>8.963108062744141</v>
       </c>
       <c r="M97">
-        <v>9.992361068725586</v>
+        <v>9.006261825561523</v>
       </c>
       <c r="N97">
-        <v>17.39978790283203</v>
+        <v>17.96936988830566</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4724,7 +4736,7 @@
         <v>15</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I98" t="b">
         <v>0</v>
@@ -4739,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>27.10294723510742</v>
+        <v>18.96786689758301</v>
       </c>
       <c r="N98">
-        <v>27.10294723510742</v>
+        <v>18.96786689758301</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4765,7 +4777,7 @@
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H99" t="s">
         <v>18</v>
@@ -4780,13 +4792,13 @@
         <v>4</v>
       </c>
       <c r="L99">
-        <v>20.56884765625</v>
+        <v>22.36700057983398</v>
       </c>
       <c r="M99">
-        <v>35.98284721374512</v>
+        <v>33.4930419921875</v>
       </c>
       <c r="N99">
-        <v>56.55169486999512</v>
+        <v>55.86004257202148</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4809,10 +4821,10 @@
         <v>15</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H100" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I100" t="b">
         <v>1</v>
@@ -4827,10 +4839,10 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>180.9368133544922</v>
+        <v>188.4207725524902</v>
       </c>
       <c r="N100">
-        <v>180.9368133544922</v>
+        <v>188.4207725524902</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4853,10 +4865,10 @@
         <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H101" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I101" t="b">
         <v>1</v>
@@ -4868,13 +4880,13 @@
         <v>4</v>
       </c>
       <c r="L101">
-        <v>20.00284194946289</v>
+        <v>21.61455154418945</v>
       </c>
       <c r="M101">
-        <v>72.74079322814941</v>
+        <v>77.15344429016113</v>
       </c>
       <c r="N101">
-        <v>92.7436351776123</v>
+        <v>98.76799583435059</v>
       </c>
     </row>
   </sheetData>
@@ -4887,7 +4899,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4907,13 +4919,13 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -4951,13 +4963,13 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0.2</v>
@@ -4972,13 +4984,13 @@
         <v>2</v>
       </c>
       <c r="L2">
-        <v>4.271030426025391</v>
+        <v>3.973484039306641</v>
       </c>
       <c r="M2">
         <v>3.000259399414062</v>
       </c>
       <c r="N2">
-        <v>7.271289825439453</v>
+        <v>6.973743438720703</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4995,13 +5007,13 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0.2</v>
@@ -5016,13 +5028,13 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>4.271030426025391</v>
+        <v>3.973484039306641</v>
       </c>
       <c r="M3">
         <v>3.000259399414062</v>
       </c>
       <c r="N3">
-        <v>7.271289825439453</v>
+        <v>6.973743438720703</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -5060,13 +5072,13 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>5.998849868774414</v>
+        <v>16.97516441345215</v>
       </c>
       <c r="M4">
-        <v>3.513574600219727</v>
+        <v>17.28034019470215</v>
       </c>
       <c r="N4">
-        <v>9.512424468994141</v>
+        <v>34.2555046081543</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -5083,7 +5095,7 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -5104,13 +5116,13 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>5.998849868774414</v>
+        <v>16.97516441345215</v>
       </c>
       <c r="M5">
-        <v>3.513574600219727</v>
+        <v>17.28034019470215</v>
       </c>
       <c r="N5">
-        <v>9.512424468994141</v>
+        <v>34.2555046081543</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -5127,13 +5139,13 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0.6</v>
@@ -5148,13 +5160,13 @@
         <v>2</v>
       </c>
       <c r="L6">
-        <v>13.98634910583496</v>
+        <v>16.01409912109375</v>
       </c>
       <c r="M6">
-        <v>12.99834251403809</v>
+        <v>14.40930366516113</v>
       </c>
       <c r="N6">
-        <v>26.98469161987305</v>
+        <v>30.42340278625488</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -5171,13 +5183,13 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0.6</v>
@@ -5192,13 +5204,13 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <v>13.98634910583496</v>
+        <v>16.01409912109375</v>
       </c>
       <c r="M7">
-        <v>12.99834251403809</v>
+        <v>14.40930366516113</v>
       </c>
       <c r="N7">
-        <v>26.98469161987305</v>
+        <v>30.42340278625488</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -5209,13 +5221,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -5233,16 +5245,16 @@
         <v>10</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>17.52924919128418</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>25.09832382202148</v>
+        <v>21.18301391601562</v>
       </c>
       <c r="N8">
-        <v>42.62757301330566</v>
+        <v>21.18301391601562</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -5259,13 +5271,13 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0.8</v>
@@ -5277,16 +5289,16 @@
         <v>10</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>17.52924919128418</v>
+        <v>22.98069000244141</v>
       </c>
       <c r="M9">
-        <v>25.09832382202148</v>
+        <v>29.97779846191406</v>
       </c>
       <c r="N9">
-        <v>42.62757301330566</v>
+        <v>52.95848846435547</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -5297,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -5306,13 +5318,13 @@
         <v>16</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I10">
         <v>100</v>
@@ -5321,16 +5333,16 @@
         <v>10</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>22.98069000244141</v>
       </c>
       <c r="M10">
-        <v>183.8200092315674</v>
+        <v>29.97779846191406</v>
       </c>
       <c r="N10">
-        <v>183.8200092315674</v>
+        <v>52.95848846435547</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -5347,10 +5359,10 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -5371,10 +5383,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>183.8200092315674</v>
+        <v>218.7802791595459</v>
       </c>
       <c r="N11">
-        <v>183.8200092315674</v>
+        <v>218.7802791595459</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -5391,10 +5403,10 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -5415,10 +5427,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>183.8200092315674</v>
+        <v>218.7802791595459</v>
       </c>
       <c r="N12">
-        <v>183.8200092315674</v>
+        <v>218.7802791595459</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -5435,10 +5447,10 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -5459,10 +5471,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>183.8200092315674</v>
+        <v>218.7802791595459</v>
       </c>
       <c r="N13">
-        <v>183.8200092315674</v>
+        <v>218.7802791595459</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -5479,10 +5491,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -5503,10 +5515,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>183.8200092315674</v>
+        <v>218.7802791595459</v>
       </c>
       <c r="N14">
-        <v>183.8200092315674</v>
+        <v>218.7802791595459</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -5523,10 +5535,10 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -5547,10 +5559,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>183.8200092315674</v>
+        <v>218.7802791595459</v>
       </c>
       <c r="N15">
-        <v>183.8200092315674</v>
+        <v>218.7802791595459</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -5567,10 +5579,10 @@
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -5591,10 +5603,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>183.8200092315674</v>
+        <v>218.7802791595459</v>
       </c>
       <c r="N16">
-        <v>183.8200092315674</v>
+        <v>218.7802791595459</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -5605,7 +5617,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -5614,7 +5626,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -5629,16 +5641,16 @@
         <v>10</v>
       </c>
       <c r="K17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L17">
-        <v>22.37367630004883</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>72.49331474304199</v>
+        <v>218.7802791595459</v>
       </c>
       <c r="N17">
-        <v>94.86699104309082</v>
+        <v>218.7802791595459</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -5655,10 +5667,10 @@
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -5676,13 +5688,13 @@
         <v>4</v>
       </c>
       <c r="L18">
-        <v>22.37367630004883</v>
+        <v>19.54746246337891</v>
       </c>
       <c r="M18">
-        <v>72.49331474304199</v>
+        <v>70.39761543273926</v>
       </c>
       <c r="N18">
-        <v>94.86699104309082</v>
+        <v>89.94507789611816</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -5699,10 +5711,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -5720,13 +5732,13 @@
         <v>4</v>
       </c>
       <c r="L19">
-        <v>22.37367630004883</v>
+        <v>19.54746246337891</v>
       </c>
       <c r="M19">
-        <v>72.49331474304199</v>
+        <v>70.39761543273926</v>
       </c>
       <c r="N19">
-        <v>94.86699104309082</v>
+        <v>89.94507789611816</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -5743,10 +5755,10 @@
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -5764,13 +5776,13 @@
         <v>4</v>
       </c>
       <c r="L20">
-        <v>22.37367630004883</v>
+        <v>19.54746246337891</v>
       </c>
       <c r="M20">
-        <v>72.49331474304199</v>
+        <v>70.39761543273926</v>
       </c>
       <c r="N20">
-        <v>94.86699104309082</v>
+        <v>89.94507789611816</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -5784,19 +5796,19 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>100</v>
@@ -5805,16 +5817,16 @@
         <v>10</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>3.994941711425781</v>
+        <v>19.54746246337891</v>
       </c>
       <c r="M21">
-        <v>2.000570297241211</v>
+        <v>70.39761543273926</v>
       </c>
       <c r="N21">
-        <v>5.995512008666992</v>
+        <v>89.94507789611816</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -5828,16 +5840,16 @@
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>0.2</v>
@@ -5852,13 +5864,13 @@
         <v>2</v>
       </c>
       <c r="L22">
-        <v>3.994941711425781</v>
+        <v>5.947351455688477</v>
       </c>
       <c r="M22">
-        <v>2.000570297241211</v>
+        <v>2.478599548339844</v>
       </c>
       <c r="N22">
-        <v>5.995512008666992</v>
+        <v>8.42595100402832</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -5872,19 +5884,19 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I23">
         <v>100</v>
@@ -5896,13 +5908,13 @@
         <v>2</v>
       </c>
       <c r="L23">
-        <v>4.002571105957031</v>
+        <v>5.947351455688477</v>
       </c>
       <c r="M23">
-        <v>2.99835205078125</v>
+        <v>2.478599548339844</v>
       </c>
       <c r="N23">
-        <v>7.000923156738281</v>
+        <v>8.42595100402832</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -5916,16 +5928,16 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0.4</v>
@@ -5940,13 +5952,13 @@
         <v>2</v>
       </c>
       <c r="L24">
-        <v>4.002571105957031</v>
+        <v>6.303548812866211</v>
       </c>
       <c r="M24">
-        <v>2.99835205078125</v>
+        <v>2.999067306518555</v>
       </c>
       <c r="N24">
-        <v>7.000923156738281</v>
+        <v>9.302616119384766</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -5960,19 +5972,19 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I25">
         <v>100</v>
@@ -5984,13 +5996,13 @@
         <v>2</v>
       </c>
       <c r="L25">
-        <v>5.996942520141602</v>
+        <v>6.303548812866211</v>
       </c>
       <c r="M25">
-        <v>4.001379013061523</v>
+        <v>2.999067306518555</v>
       </c>
       <c r="N25">
-        <v>9.998321533203125</v>
+        <v>9.302616119384766</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -6004,16 +6016,16 @@
         <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0.6</v>
@@ -6028,13 +6040,13 @@
         <v>2</v>
       </c>
       <c r="L26">
-        <v>5.996942520141602</v>
+        <v>7.189512252807617</v>
       </c>
       <c r="M26">
-        <v>4.001379013061523</v>
+        <v>6.378173828125</v>
       </c>
       <c r="N26">
-        <v>9.998321533203125</v>
+        <v>13.56768608093262</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -6048,19 +6060,19 @@
         <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I27">
         <v>100</v>
@@ -6072,13 +6084,13 @@
         <v>2</v>
       </c>
       <c r="L27">
-        <v>16.00909233093262</v>
+        <v>7.189512252807617</v>
       </c>
       <c r="M27">
-        <v>14.48845863342285</v>
+        <v>6.378173828125</v>
       </c>
       <c r="N27">
-        <v>30.49755096435547</v>
+        <v>13.56768608093262</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -6092,16 +6104,16 @@
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>0.8</v>
@@ -6116,13 +6128,13 @@
         <v>2</v>
       </c>
       <c r="L28">
-        <v>16.00909233093262</v>
+        <v>24.84393119812012</v>
       </c>
       <c r="M28">
-        <v>14.48845863342285</v>
+        <v>21.47817611694336</v>
       </c>
       <c r="N28">
-        <v>30.49755096435547</v>
+        <v>46.32210731506348</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -6136,19 +6148,19 @@
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I29">
         <v>100</v>
@@ -6160,13 +6172,13 @@
         <v>2</v>
       </c>
       <c r="L29">
-        <v>20.03908157348633</v>
+        <v>24.84393119812012</v>
       </c>
       <c r="M29">
-        <v>18.92614364624023</v>
+        <v>21.47817611694336</v>
       </c>
       <c r="N29">
-        <v>38.96522521972656</v>
+        <v>46.32210731506348</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -6180,13 +6192,13 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
         <v>29</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -6204,13 +6216,13 @@
         <v>2</v>
       </c>
       <c r="L30">
-        <v>20.03908157348633</v>
+        <v>19.51909065246582</v>
       </c>
       <c r="M30">
-        <v>18.92614364624023</v>
+        <v>19.98162269592285</v>
       </c>
       <c r="N30">
-        <v>38.96522521972656</v>
+        <v>39.50071334838867</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -6224,19 +6236,19 @@
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>100</v>
@@ -6245,16 +6257,16 @@
         <v>10</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>3.95512580871582</v>
+        <v>19.51909065246582</v>
       </c>
       <c r="M31">
-        <v>1.000881195068359</v>
+        <v>19.98162269592285</v>
       </c>
       <c r="N31">
-        <v>4.95600700378418</v>
+        <v>39.50071334838867</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -6268,10 +6280,10 @@
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -6280,7 +6292,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I32">
         <v>100</v>
@@ -6292,13 +6304,13 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>5.924701690673828</v>
+        <v>4.985809326171875</v>
       </c>
       <c r="M32">
-        <v>1.04069709777832</v>
+        <v>0.9961128234863281</v>
       </c>
       <c r="N32">
-        <v>6.965398788452148</v>
+        <v>5.981922149658203</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -6312,10 +6324,10 @@
         <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -6324,7 +6336,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I33">
         <v>100</v>
@@ -6336,13 +6348,13 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <v>6.956100463867188</v>
+        <v>3.980398178100586</v>
       </c>
       <c r="M33">
-        <v>1.069784164428711</v>
+        <v>1.000165939331055</v>
       </c>
       <c r="N33">
-        <v>8.025884628295898</v>
+        <v>4.980564117431641</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -6356,10 +6368,10 @@
         <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -6368,7 +6380,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I34">
         <v>100</v>
@@ -6380,13 +6392,13 @@
         <v>1</v>
       </c>
       <c r="L34">
-        <v>14.53685760498047</v>
+        <v>4.977703094482422</v>
       </c>
       <c r="M34">
-        <v>2.002477645874023</v>
+        <v>2.018213272094727</v>
       </c>
       <c r="N34">
-        <v>16.53933525085449</v>
+        <v>6.995916366577148</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -6400,10 +6412,10 @@
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -6412,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I35">
         <v>100</v>
@@ -6424,13 +6436,13 @@
         <v>1</v>
       </c>
       <c r="L35">
-        <v>18.01657676696777</v>
+        <v>17.51446723937988</v>
       </c>
       <c r="M35">
-        <v>0.9996891021728516</v>
+        <v>1.001596450805664</v>
       </c>
       <c r="N35">
-        <v>19.01626586914062</v>
+        <v>18.51606369018555</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -6441,22 +6453,22 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>100</v>
@@ -6465,16 +6477,16 @@
         <v>10</v>
       </c>
       <c r="K36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>18.98574829101562</v>
       </c>
       <c r="M36">
-        <v>21.99554443359375</v>
+        <v>1.003503799438477</v>
       </c>
       <c r="N36">
-        <v>21.99554443359375</v>
+        <v>19.9892520904541</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -6485,19 +6497,19 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0.2</v>
@@ -6509,16 +6521,16 @@
         <v>10</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L37">
-        <v>3.983259201049805</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>0.9992122650146484</v>
+        <v>22.01581001281738</v>
       </c>
       <c r="N37">
-        <v>4.982471466064453</v>
+        <v>22.01581001281738</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -6529,10 +6541,10 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E38" t="s">
         <v>27</v>
@@ -6541,10 +6553,10 @@
         <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I38">
         <v>100</v>
@@ -6553,16 +6565,16 @@
         <v>10</v>
       </c>
       <c r="K38">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>3.993749618530273</v>
       </c>
       <c r="M38">
-        <v>24.96886253356934</v>
+        <v>1.001119613647461</v>
       </c>
       <c r="N38">
-        <v>24.96886253356934</v>
+        <v>4.994869232177734</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -6573,19 +6585,19 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0.4</v>
@@ -6597,16 +6609,16 @@
         <v>10</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L39">
-        <v>5.003690719604492</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>0.9961128234863281</v>
+        <v>29.42562103271484</v>
       </c>
       <c r="N39">
-        <v>5.99980354309082</v>
+        <v>29.42562103271484</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -6617,10 +6629,10 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E40" t="s">
         <v>27</v>
@@ -6629,10 +6641,10 @@
         <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I40">
         <v>100</v>
@@ -6641,16 +6653,16 @@
         <v>10</v>
       </c>
       <c r="K40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>4.923820495605469</v>
       </c>
       <c r="M40">
-        <v>19.84024047851562</v>
+        <v>1.00255012512207</v>
       </c>
       <c r="N40">
-        <v>19.84024047851562</v>
+        <v>5.926370620727539</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -6661,19 +6673,19 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <v>0.6</v>
@@ -6685,16 +6697,16 @@
         <v>10</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L41">
-        <v>3.980875015258789</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>1.000404357910156</v>
+        <v>21.98266983032227</v>
       </c>
       <c r="N41">
-        <v>4.981279373168945</v>
+        <v>21.98266983032227</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -6705,10 +6717,10 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E42" t="s">
         <v>27</v>
@@ -6717,10 +6729,10 @@
         <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I42">
         <v>100</v>
@@ -6729,16 +6741,16 @@
         <v>10</v>
       </c>
       <c r="K42">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>3.964662551879883</v>
       </c>
       <c r="M42">
-        <v>25.63714981079102</v>
+        <v>1.006126403808594</v>
       </c>
       <c r="N42">
-        <v>25.63714981079102</v>
+        <v>4.970788955688477</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -6749,19 +6761,19 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E43" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0.8</v>
@@ -6773,16 +6785,16 @@
         <v>10</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L43">
-        <v>4.981517791748047</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>2.001047134399414</v>
+        <v>31.6925048828125</v>
       </c>
       <c r="N43">
-        <v>6.982564926147461</v>
+        <v>31.6925048828125</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -6793,10 +6805,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E44" t="s">
         <v>27</v>
@@ -6805,10 +6817,10 @@
         <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I44">
         <v>100</v>
@@ -6817,16 +6829,16 @@
         <v>10</v>
       </c>
       <c r="K44">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>5.988121032714844</v>
       </c>
       <c r="M44">
-        <v>36.97919845581055</v>
+        <v>0.9999275207519531</v>
       </c>
       <c r="N44">
-        <v>36.97919845581055</v>
+        <v>6.988048553466797</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -6837,19 +6849,19 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E45" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -6861,16 +6873,16 @@
         <v>10</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L45">
-        <v>17.28320121765137</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>1.001596450805664</v>
+        <v>39.97683525085449</v>
       </c>
       <c r="N45">
-        <v>18.28479766845703</v>
+        <v>39.97683525085449</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -6884,10 +6896,10 @@
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -6896,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>100</v>
@@ -6908,13 +6920,13 @@
         <v>1</v>
       </c>
       <c r="L46">
-        <v>3.981828689575195</v>
+        <v>19.19102668762207</v>
       </c>
       <c r="M46">
-        <v>1.019954681396484</v>
+        <v>0.9787082672119141</v>
       </c>
       <c r="N46">
-        <v>5.00178337097168</v>
+        <v>20.16973495483398</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -6940,7 +6952,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I47">
         <v>100</v>
@@ -6952,13 +6964,13 @@
         <v>1</v>
       </c>
       <c r="L47">
-        <v>4.982233047485352</v>
+        <v>5.012273788452148</v>
       </c>
       <c r="M47">
-        <v>0.9996891021728516</v>
+        <v>1.005172729492188</v>
       </c>
       <c r="N47">
-        <v>5.981922149658203</v>
+        <v>6.017446517944336</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -6984,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I48">
         <v>100</v>
@@ -6996,13 +7008,13 @@
         <v>1</v>
       </c>
       <c r="L48">
-        <v>4.980564117431641</v>
+        <v>6.593942642211914</v>
       </c>
       <c r="M48">
-        <v>1.001358032226562</v>
+        <v>0.9999275207519531</v>
       </c>
       <c r="N48">
-        <v>5.981922149658203</v>
+        <v>7.593870162963867</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -7028,7 +7040,7 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I49">
         <v>100</v>
@@ -7040,13 +7052,13 @@
         <v>1</v>
       </c>
       <c r="L49">
-        <v>6.983518600463867</v>
+        <v>5.023956298828125</v>
       </c>
       <c r="M49">
-        <v>1.000165939331055</v>
+        <v>0.9744167327880859</v>
       </c>
       <c r="N49">
-        <v>7.983684539794922</v>
+        <v>5.998373031616211</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -7072,7 +7084,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I50">
         <v>100</v>
@@ -7084,13 +7096,13 @@
         <v>1</v>
       </c>
       <c r="L50">
-        <v>16.38412475585938</v>
+        <v>4.987478256225586</v>
       </c>
       <c r="M50">
-        <v>0.9670257568359375</v>
+        <v>0.9946823120117188</v>
       </c>
       <c r="N50">
-        <v>17.35115051269531</v>
+        <v>5.982160568237305</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -7104,19 +7116,19 @@
         <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E51" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>100</v>
@@ -7125,16 +7137,16 @@
         <v>10</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>5.000114440917969</v>
+        <v>21.01707458496094</v>
       </c>
       <c r="M51">
-        <v>2.001285552978516</v>
+        <v>0.9610652923583984</v>
       </c>
       <c r="N51">
-        <v>7.001399993896484</v>
+        <v>21.97813987731934</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -7151,13 +7163,13 @@
         <v>29</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <v>0.2</v>
@@ -7172,13 +7184,13 @@
         <v>2</v>
       </c>
       <c r="L52">
-        <v>5.000114440917969</v>
+        <v>3.978967666625977</v>
       </c>
       <c r="M52">
-        <v>2.001285552978516</v>
+        <v>2.002239227294922</v>
       </c>
       <c r="N52">
-        <v>7.001399993896484</v>
+        <v>5.981206893920898</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -7195,16 +7207,16 @@
         <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I53">
         <v>100</v>
@@ -7216,13 +7228,13 @@
         <v>2</v>
       </c>
       <c r="L53">
-        <v>3.981113433837891</v>
+        <v>3.978967666625977</v>
       </c>
       <c r="M53">
-        <v>2.999782562255859</v>
+        <v>2.002239227294922</v>
       </c>
       <c r="N53">
-        <v>6.98089599609375</v>
+        <v>5.981206893920898</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -7239,13 +7251,13 @@
         <v>29</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <v>0.4</v>
@@ -7260,13 +7272,13 @@
         <v>2</v>
       </c>
       <c r="L54">
-        <v>3.981113433837891</v>
+        <v>8.152961730957031</v>
       </c>
       <c r="M54">
-        <v>2.999782562255859</v>
+        <v>4.975318908691406</v>
       </c>
       <c r="N54">
-        <v>6.98089599609375</v>
+        <v>13.12828063964844</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -7286,13 +7298,13 @@
         <v>29</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I55">
         <v>100</v>
@@ -7304,13 +7316,13 @@
         <v>2</v>
       </c>
       <c r="L55">
-        <v>8.014440536499023</v>
+        <v>8.152961730957031</v>
       </c>
       <c r="M55">
-        <v>6.000518798828125</v>
+        <v>4.975318908691406</v>
       </c>
       <c r="N55">
-        <v>14.01495933532715</v>
+        <v>13.12828063964844</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -7327,10 +7339,10 @@
         <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
@@ -7348,13 +7360,13 @@
         <v>2</v>
       </c>
       <c r="L56">
-        <v>8.014440536499023</v>
+        <v>6.008386611938477</v>
       </c>
       <c r="M56">
-        <v>6.000518798828125</v>
+        <v>2.925634384155273</v>
       </c>
       <c r="N56">
-        <v>14.01495933532715</v>
+        <v>8.93402099609375</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -7371,16 +7383,16 @@
         <v>29</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I57">
         <v>100</v>
@@ -7392,13 +7404,13 @@
         <v>2</v>
       </c>
       <c r="L57">
-        <v>8.967876434326172</v>
+        <v>6.008386611938477</v>
       </c>
       <c r="M57">
-        <v>7.069826126098633</v>
+        <v>2.925634384155273</v>
       </c>
       <c r="N57">
-        <v>16.0377025604248</v>
+        <v>8.93402099609375</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -7418,7 +7430,7 @@
         <v>29</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
@@ -7436,13 +7448,13 @@
         <v>2</v>
       </c>
       <c r="L58">
-        <v>8.967876434326172</v>
+        <v>10.98871231079102</v>
       </c>
       <c r="M58">
-        <v>7.069826126098633</v>
+        <v>10.00428199768066</v>
       </c>
       <c r="N58">
-        <v>16.0377025604248</v>
+        <v>20.99299430847168</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -7459,16 +7471,16 @@
         <v>29</v>
       </c>
       <c r="E59" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I59">
         <v>100</v>
@@ -7480,13 +7492,13 @@
         <v>2</v>
       </c>
       <c r="L59">
-        <v>17.18926429748535</v>
+        <v>10.98871231079102</v>
       </c>
       <c r="M59">
-        <v>18.24283599853516</v>
+        <v>10.00428199768066</v>
       </c>
       <c r="N59">
-        <v>35.43210029602051</v>
+        <v>20.99299430847168</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -7503,13 +7515,13 @@
         <v>29</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -7524,13 +7536,13 @@
         <v>2</v>
       </c>
       <c r="L60">
-        <v>17.18926429748535</v>
+        <v>18.44286918640137</v>
       </c>
       <c r="M60">
-        <v>18.24283599853516</v>
+        <v>19.97995376586914</v>
       </c>
       <c r="N60">
-        <v>35.43210029602051</v>
+        <v>38.42282295227051</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -7544,19 +7556,19 @@
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I61">
         <v>100</v>
@@ -7565,16 +7577,16 @@
         <v>10</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L61">
-        <v>4.003286361694336</v>
+        <v>18.44286918640137</v>
       </c>
       <c r="M61">
-        <v>3.043174743652344</v>
+        <v>19.97995376586914</v>
       </c>
       <c r="N61">
-        <v>7.04646110534668</v>
+        <v>38.42282295227051</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -7585,22 +7597,22 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D62" t="s">
         <v>30</v>
       </c>
       <c r="E62" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I62">
         <v>100</v>
@@ -7609,16 +7621,16 @@
         <v>10</v>
       </c>
       <c r="K62">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>5.984306335449219</v>
       </c>
       <c r="M62">
-        <v>18.55206489562988</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>18.55206489562988</v>
+        <v>5.984306335449219</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -7656,13 +7668,13 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>6.001472473144531</v>
+        <v>5.973339080810547</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
       <c r="N63">
-        <v>6.001472473144531</v>
+        <v>5.973339080810547</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -7700,13 +7712,13 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>6.244897842407227</v>
+        <v>11.97409629821777</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
       <c r="N64">
-        <v>6.244897842407227</v>
+        <v>11.97409629821777</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -7717,19 +7729,19 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D65" t="s">
         <v>30</v>
       </c>
       <c r="E65" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>0.8</v>
@@ -7741,16 +7753,16 @@
         <v>10</v>
       </c>
       <c r="K65">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>10.00452041625977</v>
       </c>
       <c r="M65">
-        <v>121.2406158447266</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>121.2406158447266</v>
+        <v>10.00452041625977</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -7761,22 +7773,22 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
         <v>30</v>
       </c>
       <c r="E66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>100</v>
@@ -7785,16 +7797,16 @@
         <v>10</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L66">
-        <v>18.54157447814941</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>200.86669921875</v>
       </c>
       <c r="N66">
-        <v>18.54157447814941</v>
+        <v>200.86669921875</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -7811,13 +7823,13 @@
         <v>30</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -7835,10 +7847,10 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>174.6859550476074</v>
+        <v>200.86669921875</v>
       </c>
       <c r="N67">
-        <v>174.6859550476074</v>
+        <v>200.86669921875</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -7855,10 +7867,10 @@
         <v>30</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
@@ -7879,10 +7891,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>174.6859550476074</v>
+        <v>200.86669921875</v>
       </c>
       <c r="N68">
-        <v>174.6859550476074</v>
+        <v>200.86669921875</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -7899,10 +7911,10 @@
         <v>30</v>
       </c>
       <c r="E69" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
@@ -7923,10 +7935,10 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>174.6859550476074</v>
+        <v>200.86669921875</v>
       </c>
       <c r="N69">
-        <v>174.6859550476074</v>
+        <v>200.86669921875</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -7943,13 +7955,13 @@
         <v>30</v>
       </c>
       <c r="E70" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -7967,10 +7979,10 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>174.6859550476074</v>
+        <v>200.86669921875</v>
       </c>
       <c r="N70">
-        <v>174.6859550476074</v>
+        <v>200.86669921875</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -7987,10 +7999,10 @@
         <v>30</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
@@ -8011,10 +8023,10 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>174.6859550476074</v>
+        <v>200.86669921875</v>
       </c>
       <c r="N71">
-        <v>174.6859550476074</v>
+        <v>200.86669921875</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -8031,10 +8043,10 @@
         <v>30</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
@@ -8055,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>174.6859550476074</v>
+        <v>200.86669921875</v>
       </c>
       <c r="N72">
-        <v>174.6859550476074</v>
+        <v>200.86669921875</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -8069,19 +8081,19 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D73" t="s">
         <v>30</v>
       </c>
       <c r="E73" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F73">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -8093,16 +8105,16 @@
         <v>10</v>
       </c>
       <c r="K73">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>21.76308631896973</v>
       </c>
       <c r="M73">
-        <v>174.6859550476074</v>
+        <v>70.71566581726074</v>
       </c>
       <c r="N73">
-        <v>174.6859550476074</v>
+        <v>92.47875213623047</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -8119,10 +8131,10 @@
         <v>30</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
@@ -8140,13 +8152,13 @@
         <v>4</v>
       </c>
       <c r="L74">
-        <v>21.19922637939453</v>
+        <v>21.76308631896973</v>
       </c>
       <c r="M74">
-        <v>67.91400909423828</v>
+        <v>70.71566581726074</v>
       </c>
       <c r="N74">
-        <v>89.11323547363281</v>
+        <v>92.47875213623047</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -8163,10 +8175,10 @@
         <v>30</v>
       </c>
       <c r="E75" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
@@ -8184,13 +8196,13 @@
         <v>4</v>
       </c>
       <c r="L75">
-        <v>21.19922637939453</v>
+        <v>21.76308631896973</v>
       </c>
       <c r="M75">
-        <v>67.91400909423828</v>
+        <v>70.71566581726074</v>
       </c>
       <c r="N75">
-        <v>89.11323547363281</v>
+        <v>92.47875213623047</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -8207,13 +8219,13 @@
         <v>30</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -8228,13 +8240,13 @@
         <v>4</v>
       </c>
       <c r="L76">
-        <v>21.19922637939453</v>
+        <v>21.76308631896973</v>
       </c>
       <c r="M76">
-        <v>67.91400909423828</v>
+        <v>70.71566581726074</v>
       </c>
       <c r="N76">
-        <v>89.11323547363281</v>
+        <v>92.47875213623047</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -8245,22 +8257,22 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E77" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I77">
         <v>100</v>
@@ -8269,16 +8281,16 @@
         <v>10</v>
       </c>
       <c r="K77">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L77">
-        <v>21.19922637939453</v>
+        <v>0</v>
       </c>
       <c r="M77">
-        <v>67.91400909423828</v>
+        <v>32.91153907775879</v>
       </c>
       <c r="N77">
-        <v>89.11323547363281</v>
+        <v>32.91153907775879</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -8292,10 +8304,10 @@
         <v>17</v>
       </c>
       <c r="D78" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E78" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -8313,16 +8325,16 @@
         <v>10</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L78">
-        <v>4.982709884643555</v>
+        <v>3.983259201049805</v>
       </c>
       <c r="M78">
-        <v>0.9989738464355469</v>
+        <v>4.000425338745117</v>
       </c>
       <c r="N78">
-        <v>5.981683731079102</v>
+        <v>7.983684539794922</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -8336,19 +8348,19 @@
         <v>17</v>
       </c>
       <c r="D79" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E79" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I79">
         <v>100</v>
@@ -8357,16 +8369,16 @@
         <v>10</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L79">
-        <v>5.97691535949707</v>
+        <v>3.983259201049805</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>4.000425338745117</v>
       </c>
       <c r="N79">
-        <v>5.97691535949707</v>
+        <v>7.983684539794922</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -8377,13 +8389,13 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E80" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -8392,7 +8404,7 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I80">
         <v>100</v>
@@ -8401,16 +8413,16 @@
         <v>10</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L80">
-        <v>6.865262985229492</v>
+        <v>0</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>39.00027275085449</v>
       </c>
       <c r="N80">
-        <v>6.865262985229492</v>
+        <v>39.00027275085449</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -8424,19 +8436,19 @@
         <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E81" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I81">
         <v>100</v>
@@ -8445,16 +8457,16 @@
         <v>10</v>
       </c>
       <c r="K81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L81">
-        <v>17.98796653747559</v>
+        <v>3.986120223999023</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>4.005670547485352</v>
       </c>
       <c r="N81">
-        <v>17.98796653747559</v>
+        <v>7.991790771484375</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -8468,19 +8480,19 @@
         <v>17</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E82" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I82">
         <v>100</v>
@@ -8489,16 +8501,16 @@
         <v>10</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L82">
-        <v>17.974853515625</v>
+        <v>3.986120223999023</v>
       </c>
       <c r="M82">
-        <v>2.000093460083008</v>
+        <v>4.005670547485352</v>
       </c>
       <c r="N82">
-        <v>19.97494697570801</v>
+        <v>7.991790771484375</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -8512,19 +8524,19 @@
         <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E83" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I83">
         <v>100</v>
@@ -8539,10 +8551,10 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>28.1529426574707</v>
+        <v>51.08380317687988</v>
       </c>
       <c r="N83">
-        <v>28.1529426574707</v>
+        <v>51.08380317687988</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -8556,10 +8568,10 @@
         <v>17</v>
       </c>
       <c r="D84" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -8568,7 +8580,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I84">
         <v>100</v>
@@ -8577,16 +8589,16 @@
         <v>10</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L84">
-        <v>5.000829696655273</v>
+        <v>6.273984909057617</v>
       </c>
       <c r="M84">
-        <v>3.014564514160156</v>
+        <v>6.99615478515625</v>
       </c>
       <c r="N84">
-        <v>8.01539421081543</v>
+        <v>13.27013969421387</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -8600,19 +8612,19 @@
         <v>17</v>
       </c>
       <c r="D85" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I85">
         <v>100</v>
@@ -8621,16 +8633,16 @@
         <v>10</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L85">
-        <v>4.977703094482422</v>
+        <v>6.273984909057617</v>
       </c>
       <c r="M85">
-        <v>1.000642776489258</v>
+        <v>6.99615478515625</v>
       </c>
       <c r="N85">
-        <v>5.97834587097168</v>
+        <v>13.27013969421387</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -8641,16 +8653,16 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D86" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E86" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
@@ -8665,16 +8677,16 @@
         <v>10</v>
       </c>
       <c r="K86">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>6.273984909057617</v>
       </c>
       <c r="M86">
-        <v>39.63756561279297</v>
+        <v>6.99615478515625</v>
       </c>
       <c r="N86">
-        <v>39.63756561279297</v>
+        <v>13.27013969421387</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -8688,10 +8700,10 @@
         <v>17</v>
       </c>
       <c r="D87" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -8700,7 +8712,7 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I87">
         <v>100</v>
@@ -8712,13 +8724,13 @@
         <v>0</v>
       </c>
       <c r="L87">
-        <v>4.96363639831543</v>
+        <v>9.676694869995117</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
       <c r="N87">
-        <v>4.96363639831543</v>
+        <v>9.676694869995117</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -8729,22 +8741,22 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E88" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>100</v>
@@ -8753,16 +8765,16 @@
         <v>10</v>
       </c>
       <c r="K88">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>23.7889289855957</v>
       </c>
       <c r="M88">
-        <v>44.41571235656738</v>
+        <v>0.980377197265625</v>
       </c>
       <c r="N88">
-        <v>44.41571235656738</v>
+        <v>24.76930618286133</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -8773,13 +8785,13 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E89" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -8788,7 +8800,7 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="I89">
         <v>100</v>
@@ -8797,16 +8809,16 @@
         <v>10</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L89">
-        <v>11.00587844848633</v>
+        <v>0</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>37.00590133666992</v>
       </c>
       <c r="N89">
-        <v>11.00587844848633</v>
+        <v>37.00590133666992</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -8820,19 +8832,19 @@
         <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E90" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I90">
         <v>100</v>
@@ -8847,10 +8859,10 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>78.57155799865723</v>
+        <v>37.00590133666992</v>
       </c>
       <c r="N90">
-        <v>78.57155799865723</v>
+        <v>37.00590133666992</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -8861,22 +8873,22 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D91" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I91">
         <v>100</v>
@@ -8885,16 +8897,16 @@
         <v>10</v>
       </c>
       <c r="K91">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>6.989002227783203</v>
       </c>
       <c r="M91">
-        <v>78.57155799865723</v>
+        <v>2.885341644287109</v>
       </c>
       <c r="N91">
-        <v>78.57155799865723</v>
+        <v>9.874343872070312</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -8905,22 +8917,22 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E92" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I92">
         <v>100</v>
@@ -8929,16 +8941,16 @@
         <v>10</v>
       </c>
       <c r="K92">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L92">
-        <v>20.08175849914551</v>
+        <v>0</v>
       </c>
       <c r="M92">
-        <v>3.454446792602539</v>
+        <v>38.56945037841797</v>
       </c>
       <c r="N92">
-        <v>23.53620529174805</v>
+        <v>38.56945037841797</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -8952,10 +8964,10 @@
         <v>17</v>
       </c>
       <c r="D93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -8964,7 +8976,7 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I93">
         <v>100</v>
@@ -8973,16 +8985,16 @@
         <v>10</v>
       </c>
       <c r="K93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L93">
-        <v>7.002115249633789</v>
+        <v>5.005598068237305</v>
       </c>
       <c r="M93">
-        <v>7.919788360595703</v>
+        <v>4.000663757324219</v>
       </c>
       <c r="N93">
-        <v>14.92190361022949</v>
+        <v>9.006261825561523</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -8996,10 +9008,10 @@
         <v>17</v>
       </c>
       <c r="D94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E94" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -9008,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I94">
         <v>100</v>
@@ -9017,16 +9029,16 @@
         <v>10</v>
       </c>
       <c r="K94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L94">
-        <v>7.002115249633789</v>
+        <v>5.005598068237305</v>
       </c>
       <c r="M94">
-        <v>7.919788360595703</v>
+        <v>4.000663757324219</v>
       </c>
       <c r="N94">
-        <v>14.92190361022949</v>
+        <v>9.006261825561523</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -9040,10 +9052,10 @@
         <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E95" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -9052,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I95">
         <v>100</v>
@@ -9067,10 +9079,10 @@
         <v>0</v>
       </c>
       <c r="M95">
-        <v>25.80022811889648</v>
+        <v>42.00959205627441</v>
       </c>
       <c r="N95">
-        <v>25.80022811889648</v>
+        <v>42.00959205627441</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -9084,10 +9096,10 @@
         <v>17</v>
       </c>
       <c r="D96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -9096,7 +9108,7 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I96">
         <v>100</v>
@@ -9105,16 +9117,16 @@
         <v>10</v>
       </c>
       <c r="K96">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L96">
-        <v>5.978107452392578</v>
+        <v>7.951498031616211</v>
       </c>
       <c r="M96">
-        <v>3.999471664428711</v>
+        <v>0</v>
       </c>
       <c r="N96">
-        <v>9.977579116821289</v>
+        <v>7.951498031616211</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -9125,22 +9137,22 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E97" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="I97">
         <v>100</v>
@@ -9149,16 +9161,16 @@
         <v>10</v>
       </c>
       <c r="K97">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L97">
-        <v>5.978107452392578</v>
+        <v>0</v>
       </c>
       <c r="M97">
-        <v>3.999471664428711</v>
+        <v>67.43526458740234</v>
       </c>
       <c r="N97">
-        <v>9.977579116821289</v>
+        <v>67.43526458740234</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -9169,22 +9181,22 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E98" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F98">
         <v>1</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I98">
         <v>100</v>
@@ -9193,16 +9205,16 @@
         <v>10</v>
       </c>
       <c r="K98">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>19.52838897705078</v>
       </c>
       <c r="M98">
-        <v>32.04774856567383</v>
+        <v>0</v>
       </c>
       <c r="N98">
-        <v>32.04774856567383</v>
+        <v>19.52838897705078</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -9213,22 +9225,22 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F99">
         <v>1</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>100</v>
@@ -9237,16 +9249,16 @@
         <v>10</v>
       </c>
       <c r="K99">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L99">
-        <v>7.407426834106445</v>
+        <v>0</v>
       </c>
       <c r="M99">
-        <v>9.992361068725586</v>
+        <v>91.9959545135498</v>
       </c>
       <c r="N99">
-        <v>17.39978790283203</v>
+        <v>91.9959545135498</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -9257,13 +9269,13 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E100" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F100">
         <v>2</v>
@@ -9272,7 +9284,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>100</v>
@@ -9281,16 +9293,16 @@
         <v>10</v>
       </c>
       <c r="K100">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L100">
-        <v>7.407426834106445</v>
+        <v>0</v>
       </c>
       <c r="M100">
-        <v>9.992361068725586</v>
+        <v>91.9959545135498</v>
       </c>
       <c r="N100">
-        <v>17.39978790283203</v>
+        <v>91.9959545135498</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -9304,10 +9316,10 @@
         <v>17</v>
       </c>
       <c r="D101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -9316,7 +9328,7 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>100</v>
@@ -9325,16 +9337,16 @@
         <v>10</v>
       </c>
       <c r="K101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L101">
-        <v>20.56884765625</v>
+        <v>24.01113510131836</v>
       </c>
       <c r="M101">
-        <v>35.98284721374512</v>
+        <v>2.954483032226562</v>
       </c>
       <c r="N101">
-        <v>56.55169486999512</v>
+        <v>26.96561813354492</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -9348,19 +9360,19 @@
         <v>17</v>
       </c>
       <c r="D102" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E102" t="s">
         <v>16</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G102" t="b">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="I102">
         <v>100</v>
@@ -9369,16 +9381,16 @@
         <v>10</v>
       </c>
       <c r="K102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L102">
-        <v>20.56884765625</v>
+        <v>5.072116851806641</v>
       </c>
       <c r="M102">
-        <v>35.98284721374512</v>
+        <v>2.007007598876953</v>
       </c>
       <c r="N102">
-        <v>56.55169486999512</v>
+        <v>7.079124450683594</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -9389,22 +9401,22 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D103" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E103" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I103">
         <v>100</v>
@@ -9413,16 +9425,16 @@
         <v>10</v>
       </c>
       <c r="K103">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>5.072116851806641</v>
       </c>
       <c r="M103">
-        <v>180.9368133544922</v>
+        <v>2.007007598876953</v>
       </c>
       <c r="N103">
-        <v>180.9368133544922</v>
+        <v>7.079124450683594</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -9433,22 +9445,22 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D104" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E104" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I104">
         <v>100</v>
@@ -9457,16 +9469,16 @@
         <v>10</v>
       </c>
       <c r="K104">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L104">
-        <v>0</v>
+        <v>6.987571716308594</v>
       </c>
       <c r="M104">
-        <v>180.9368133544922</v>
+        <v>5.998373031616211</v>
       </c>
       <c r="N104">
-        <v>180.9368133544922</v>
+        <v>12.9859447479248</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -9477,22 +9489,22 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D105" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E105" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G105" t="b">
         <v>0</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="I105">
         <v>100</v>
@@ -9501,16 +9513,16 @@
         <v>10</v>
       </c>
       <c r="K105">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L105">
-        <v>0</v>
+        <v>6.987571716308594</v>
       </c>
       <c r="M105">
-        <v>180.9368133544922</v>
+        <v>5.998373031616211</v>
       </c>
       <c r="N105">
-        <v>180.9368133544922</v>
+        <v>12.9859447479248</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -9521,22 +9533,22 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D106" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E106" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F106">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G106" t="b">
         <v>0</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I106">
         <v>100</v>
@@ -9545,16 +9557,16 @@
         <v>10</v>
       </c>
       <c r="K106">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L106">
-        <v>0</v>
+        <v>8.963108062744141</v>
       </c>
       <c r="M106">
-        <v>180.9368133544922</v>
+        <v>9.006261825561523</v>
       </c>
       <c r="N106">
-        <v>180.9368133544922</v>
+        <v>17.96936988830566</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -9565,22 +9577,22 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D107" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E107" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F107">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="I107">
         <v>100</v>
@@ -9589,16 +9601,16 @@
         <v>10</v>
       </c>
       <c r="K107">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>8.963108062744141</v>
       </c>
       <c r="M107">
-        <v>180.9368133544922</v>
+        <v>9.006261825561523</v>
       </c>
       <c r="N107">
-        <v>180.9368133544922</v>
+        <v>17.96936988830566</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -9609,22 +9621,22 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D108" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E108" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F108">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I108">
         <v>100</v>
@@ -9633,16 +9645,16 @@
         <v>10</v>
       </c>
       <c r="K108">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>22.36700057983398</v>
       </c>
       <c r="M108">
-        <v>180.9368133544922</v>
+        <v>33.4930419921875</v>
       </c>
       <c r="N108">
-        <v>180.9368133544922</v>
+        <v>55.86004257202148</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -9653,22 +9665,22 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D109" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E109" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F109">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I109">
         <v>100</v>
@@ -9677,16 +9689,16 @@
         <v>10</v>
       </c>
       <c r="K109">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L109">
-        <v>0</v>
+        <v>22.36700057983398</v>
       </c>
       <c r="M109">
-        <v>180.9368133544922</v>
+        <v>33.4930419921875</v>
       </c>
       <c r="N109">
-        <v>180.9368133544922</v>
+        <v>55.86004257202148</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -9697,19 +9709,19 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E110" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F110">
         <v>1</v>
       </c>
       <c r="G110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -9721,16 +9733,16 @@
         <v>10</v>
       </c>
       <c r="K110">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L110">
-        <v>20.00284194946289</v>
+        <v>0</v>
       </c>
       <c r="M110">
-        <v>72.74079322814941</v>
+        <v>188.4207725524902</v>
       </c>
       <c r="N110">
-        <v>92.7436351776123</v>
+        <v>188.4207725524902</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -9741,13 +9753,13 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E111" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F111">
         <v>2</v>
@@ -9765,16 +9777,16 @@
         <v>10</v>
       </c>
       <c r="K111">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L111">
-        <v>20.00284194946289</v>
+        <v>0</v>
       </c>
       <c r="M111">
-        <v>72.74079322814941</v>
+        <v>188.4207725524902</v>
       </c>
       <c r="N111">
-        <v>92.7436351776123</v>
+        <v>188.4207725524902</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -9785,19 +9797,19 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D112" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E112" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F112">
         <v>3</v>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -9809,16 +9821,16 @@
         <v>10</v>
       </c>
       <c r="K112">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L112">
-        <v>20.00284194946289</v>
+        <v>0</v>
       </c>
       <c r="M112">
-        <v>72.74079322814941</v>
+        <v>188.4207725524902</v>
       </c>
       <c r="N112">
-        <v>92.7436351776123</v>
+        <v>188.4207725524902</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -9829,10 +9841,10 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D113" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E113" t="s">
         <v>30</v>
@@ -9853,16 +9865,324 @@
         <v>10</v>
       </c>
       <c r="K113">
+        <v>10</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>188.4207725524902</v>
+      </c>
+      <c r="N113">
+        <v>188.4207725524902</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>38</v>
+      </c>
+      <c r="E114" t="s">
+        <v>36</v>
+      </c>
+      <c r="F114">
+        <v>5</v>
+      </c>
+      <c r="G114" t="b">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>100</v>
+      </c>
+      <c r="J114">
+        <v>10</v>
+      </c>
+      <c r="K114">
+        <v>10</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>188.4207725524902</v>
+      </c>
+      <c r="N114">
+        <v>188.4207725524902</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>38</v>
+      </c>
+      <c r="E115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115">
+        <v>6</v>
+      </c>
+      <c r="G115" t="b">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>100</v>
+      </c>
+      <c r="J115">
+        <v>10</v>
+      </c>
+      <c r="K115">
+        <v>10</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>188.4207725524902</v>
+      </c>
+      <c r="N115">
+        <v>188.4207725524902</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>38</v>
+      </c>
+      <c r="E116" t="s">
+        <v>20</v>
+      </c>
+      <c r="F116">
+        <v>7</v>
+      </c>
+      <c r="G116" t="b">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>100</v>
+      </c>
+      <c r="J116">
+        <v>10</v>
+      </c>
+      <c r="K116">
+        <v>10</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>188.4207725524902</v>
+      </c>
+      <c r="N116">
+        <v>188.4207725524902</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" t="s">
+        <v>38</v>
+      </c>
+      <c r="E117" t="s">
+        <v>38</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>100</v>
+      </c>
+      <c r="J117">
+        <v>10</v>
+      </c>
+      <c r="K117">
         <v>4</v>
       </c>
-      <c r="L113">
-        <v>20.00284194946289</v>
-      </c>
-      <c r="M113">
-        <v>72.74079322814941</v>
-      </c>
-      <c r="N113">
-        <v>92.7436351776123</v>
+      <c r="L117">
+        <v>21.61455154418945</v>
+      </c>
+      <c r="M117">
+        <v>77.15344429016113</v>
+      </c>
+      <c r="N117">
+        <v>98.76799583435059</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" t="s">
+        <v>38</v>
+      </c>
+      <c r="E118" t="s">
+        <v>30</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118" t="b">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>100</v>
+      </c>
+      <c r="J118">
+        <v>10</v>
+      </c>
+      <c r="K118">
+        <v>4</v>
+      </c>
+      <c r="L118">
+        <v>21.61455154418945</v>
+      </c>
+      <c r="M118">
+        <v>77.15344429016113</v>
+      </c>
+      <c r="N118">
+        <v>98.76799583435059</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" t="s">
+        <v>38</v>
+      </c>
+      <c r="E119" t="s">
+        <v>16</v>
+      </c>
+      <c r="F119">
+        <v>3</v>
+      </c>
+      <c r="G119" t="b">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>100</v>
+      </c>
+      <c r="J119">
+        <v>10</v>
+      </c>
+      <c r="K119">
+        <v>4</v>
+      </c>
+      <c r="L119">
+        <v>21.61455154418945</v>
+      </c>
+      <c r="M119">
+        <v>77.15344429016113</v>
+      </c>
+      <c r="N119">
+        <v>98.76799583435059</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" t="s">
+        <v>38</v>
+      </c>
+      <c r="E120" t="s">
+        <v>20</v>
+      </c>
+      <c r="F120">
+        <v>4</v>
+      </c>
+      <c r="G120" t="b">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>100</v>
+      </c>
+      <c r="J120">
+        <v>10</v>
+      </c>
+      <c r="K120">
+        <v>4</v>
+      </c>
+      <c r="L120">
+        <v>21.61455154418945</v>
+      </c>
+      <c r="M120">
+        <v>77.15344429016113</v>
+      </c>
+      <c r="N120">
+        <v>98.76799583435059</v>
       </c>
     </row>
   </sheetData>
@@ -9886,16 +10206,16 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9906,13 +10226,13 @@
         <v>50</v>
       </c>
       <c r="C2">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="D2">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="E2">
-        <v>35.49575328826904</v>
+        <v>39.81166839599609</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9926,10 +10246,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="E3">
-        <v>18.42100620269775</v>
+        <v>20.44626712799072</v>
       </c>
     </row>
   </sheetData>
